--- a/Progress_of_Work/Model_results.xlsx
+++ b/Progress_of_Work/Model_results.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Resalts_for_Valence" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Results_with_lagging_for_Arousal" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Results_with_lagging_for_Valence" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Results_SingleLayerPerceptron" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Results_SingleLayerPerceptron_Arousal" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Results_SingleLayerPerceptron_Valence" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,26 +659,26 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>DecisionTreeRegressor</t>
+          <t>RandomForestRegressor</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.8958603125910172</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.02329847124009603</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.001165488079014084</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.108333553276815</v>
+        <v>-0.1727649501665163</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09558195383936452</v>
+        <v>0.07771213125595761</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01815040868860234</v>
+        <v>0.01009620280818812</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -686,26 +689,26 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>RandomForestRegressor</t>
+          <t>GradientBoostingRegressor</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8958603125910172</v>
+        <v>0.4277153761574828</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02329847124009603</v>
+        <v>0.05824185047791175</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001165488079014084</v>
+        <v>0.006404771547585616</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.1727649501665163</v>
+        <v>-0.0253229396717003</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07771213125595761</v>
+        <v>0.07459930505646301</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01009620280818812</v>
+        <v>0.008826890965102002</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -716,26 +719,26 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>CatBoost</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4277153761574828</v>
+        <v>0.3266803313687652</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05824185047791175</v>
+        <v>0.06334340232267364</v>
       </c>
       <c r="D10" t="n">
-        <v>0.006404771547585616</v>
+        <v>0.007535513757339427</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.0253229396717003</v>
+        <v>0.004426246639794962</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07459930505646301</v>
+        <v>0.07390633709072436</v>
       </c>
       <c r="G10" t="n">
-        <v>0.008826890965102002</v>
+        <v>0.008570783534250847</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -746,26 +749,26 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>LGBMRegressor</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3266803313687652</v>
+        <v>0.3871030177929002</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06334340232267364</v>
+        <v>0.06017287272972066</v>
       </c>
       <c r="D11" t="n">
-        <v>0.007535513757339427</v>
+        <v>0.006859288175321202</v>
       </c>
       <c r="E11" t="n">
-        <v>0.004426246639794962</v>
+        <v>-0.01289537965054777</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07390633709072436</v>
+        <v>0.07405881950228721</v>
       </c>
       <c r="G11" t="n">
-        <v>0.008570783534250847</v>
+        <v>0.00871990348532895</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -776,26 +779,26 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>LGBMRegressor</t>
+          <t>XGBRegressor</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3871030177929002</v>
+        <v>0.5966865628239842</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06017287272972066</v>
+        <v>0.0488548505277278</v>
       </c>
       <c r="D12" t="n">
-        <v>0.006859288175321202</v>
+        <v>0.00451371628655663</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.01289537965054777</v>
+        <v>-0.1526534375705146</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07405881950228721</v>
+        <v>0.07781026155041496</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00871990348532895</v>
+        <v>0.009923065036702173</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -806,56 +809,56 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>XGBRegressor</t>
+          <t>DummyRegressor</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5966865628239842</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0488548505277278</v>
+        <v>0.07906531690928474</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00451371628655663</v>
+        <v>0.01119158418861887</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1526534375705146</v>
+        <v>-0.03415371588759641</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07781026155041496</v>
+        <v>0.08123093784765453</v>
       </c>
       <c r="G13" t="n">
-        <v>0.009923065036702173</v>
+        <v>0.00890291413378278</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Без погружения и без подбора параметров</t>
+          <t>С подбором параметров, без погружения</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>DummyRegressor</t>
+          <t>LinearRegression</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.109400826750543</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07906531690928474</v>
+        <v>0.07321862917803808</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01119158418861887</v>
+        <v>0.009967215625735664</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03415371588759641</v>
+        <v>0.001630195990830363</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08123093784765453</v>
+        <v>0.07812465373014554</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00890291413378278</v>
+        <v>0.008594854422803498</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -866,26 +869,26 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>LinearRegression</t>
+          <t>BayesianRidge</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.109400826750543</v>
+        <v>0.1093980356714521</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07321862917803808</v>
+        <v>0.07322872463704901</v>
       </c>
       <c r="D15" t="n">
-        <v>0.009967215625735664</v>
+        <v>0.009967246862332288</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001630195990830363</v>
+        <v>0.001609279133021113</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07812465373014554</v>
+        <v>0.07814972731681567</v>
       </c>
       <c r="G15" t="n">
-        <v>0.008594854422803498</v>
+        <v>0.008595034493702207</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -896,26 +899,26 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>BayesianRidge</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1093980356714521</v>
+        <v>0.06187124504584607</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07322872463704901</v>
+        <v>0.07624813691962075</v>
       </c>
       <c r="D16" t="n">
-        <v>0.009967246862332288</v>
+        <v>0.01049914694083362</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001609279133021113</v>
+        <v>-0.01869997760007069</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07814972731681567</v>
+        <v>0.08068933399497842</v>
       </c>
       <c r="G16" t="n">
-        <v>0.008595034493702207</v>
+        <v>0.008769874622435371</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -926,26 +929,26 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ElasticNet</t>
+          <t>SVR</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.06187124504584607</v>
+        <v>0.09239942698140624</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07624813691962075</v>
+        <v>0.07773197676198149</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01049914694083362</v>
+        <v>0.01015748822257632</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.01869997760007069</v>
+        <v>-0.05908290183565557</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08068933399497842</v>
+        <v>0.08397428801617232</v>
       </c>
       <c r="G17" t="n">
-        <v>0.008769874622435371</v>
+        <v>0.009117526718460469</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -956,26 +959,26 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>KNeighborsRegressor</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.09239942698140624</v>
+        <v>0.2326316232287345</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07773197676198149</v>
+        <v>0.06711127555257397</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01015748822257632</v>
+        <v>0.008588067792319425</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.05908290183565557</v>
+        <v>0.07909171111710245</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08397428801617232</v>
+        <v>0.07201126567762144</v>
       </c>
       <c r="G18" t="n">
-        <v>0.009117526718460469</v>
+        <v>0.007927996868411773</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -986,26 +989,26 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>KNeighborsRegressor</t>
+          <t>RandomForestRegressor</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2326316232287345</v>
+        <v>0.1835951914066104</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06711127555257397</v>
+        <v>0.07118644267846949</v>
       </c>
       <c r="D19" t="n">
-        <v>0.008588067792319425</v>
+        <v>0.009136863147366198</v>
       </c>
       <c r="E19" t="n">
-        <v>0.07909171111710245</v>
+        <v>0.007178025121801657</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07201126567762144</v>
+        <v>0.0775297533444478</v>
       </c>
       <c r="G19" t="n">
-        <v>0.007927996868411773</v>
+        <v>0.00854709377985155</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1016,26 +1019,26 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>DecisionTreeRegressor</t>
+          <t>GradientBoostingRegressor</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1543306511204079</v>
+        <v>0.2212441464207959</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07225952052243567</v>
+        <v>0.06901120553755348</v>
       </c>
       <c r="D20" t="n">
-        <v>0.009464379713720461</v>
+        <v>0.008715511697711415</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.03173094927542941</v>
+        <v>0.02984237614224661</v>
       </c>
       <c r="F20" t="n">
-        <v>0.07815765948710596</v>
+        <v>0.0748551172237691</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00888205680591851</v>
+        <v>0.008351978906759643</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1046,26 +1049,26 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>RandomForestRegressor</t>
+          <t>CatBoost</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1835951914066104</v>
+        <v>0.2323614983804017</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07118644267846949</v>
+        <v>0.06789580440085195</v>
       </c>
       <c r="D21" t="n">
-        <v>0.009136863147366198</v>
+        <v>0.008591090917300981</v>
       </c>
       <c r="E21" t="n">
-        <v>0.007178025121801657</v>
+        <v>0.04181296473389684</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0775297533444478</v>
+        <v>0.07314326626926429</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00854709377985155</v>
+        <v>0.008248925443115862</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1076,26 +1079,26 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>LGBMRegressor</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2212441464207959</v>
+        <v>0.2177176358034156</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06901120553755348</v>
+        <v>0.06919600243951317</v>
       </c>
       <c r="D22" t="n">
-        <v>0.008715511697711415</v>
+        <v>0.008754978938177884</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02984237614224661</v>
+        <v>0.03149954104441677</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0748551172237691</v>
+        <v>0.07477481217663118</v>
       </c>
       <c r="G22" t="n">
-        <v>0.008351978906759643</v>
+        <v>0.008337712558727544</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1106,88 +1109,28 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>XGBRegressor</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2323614983804017</v>
+        <v>0.2455813968737224</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06789580440085195</v>
+        <v>0.06738779205530922</v>
       </c>
       <c r="D23" t="n">
-        <v>0.008591090917300981</v>
+        <v>0.008443139310347986</v>
       </c>
       <c r="E23" t="n">
-        <v>0.04181296473389684</v>
+        <v>0.0357091973116902</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07314326626926429</v>
+        <v>0.07354986361489259</v>
       </c>
       <c r="G23" t="n">
-        <v>0.008248925443115862</v>
+        <v>0.008301472096884685</v>
       </c>
       <c r="H23" t="inlineStr">
-        <is>
-          <t>С подбором параметров, без погружения</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>LGBMRegressor</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.2177176358034156</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.06919600243951317</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.008754978938177884</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.03149954104441677</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.07477481217663118</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.008337712558727544</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>С подбором параметров, без погружения</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>XGBRegressor</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.2455813968737224</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.06738779205530922</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.008443139310347986</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.0357091973116902</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.07354986361489259</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.008301472096884685</v>
-      </c>
-      <c r="H25" t="inlineStr">
         <is>
           <t>С подбором параметров, без погружения</t>
         </is>
@@ -1204,7 +1147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1322,7 +1265,7 @@
         <v>0.2452865844834677</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09999439930623627</v>
+        <v>0.09999439930623628</v>
       </c>
       <c r="E4" t="n">
         <v>0.03247565347262138</v>
@@ -1432,26 +1375,26 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>DecisionTreeRegressor</t>
+          <t>RandomForestRegressor</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.9216673527556656</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.07695244197939177</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.01107313139810789</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.3413058803923432</v>
+        <v>0.1192626766405563</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3562144600167697</v>
+        <v>0.3120964845748897</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2454132314709877</v>
+        <v>0.1611448930198719</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1462,26 +1405,26 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>RandomForestRegressor</t>
+          <t>GradientBoostingRegressor</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9216673527556656</v>
+        <v>0.5283582126482905</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07695244197939177</v>
+        <v>0.1983307780255987</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01107313139810789</v>
+        <v>0.06667145395831971</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1192626766405563</v>
+        <v>0.1586461751773157</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3120964845748897</v>
+        <v>0.3145835800789515</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1611448930198719</v>
+        <v>0.1539390559443557</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1492,26 +1435,26 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>CatBoost</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5283582126482905</v>
+        <v>0.4735358014212615</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1983307780255987</v>
+        <v>0.2109918314974881</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06667145395831971</v>
+        <v>0.0744211698741431</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1586461751773157</v>
+        <v>0.150580709273179</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3145835800789515</v>
+        <v>0.317546913191371</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1539390559443557</v>
+        <v>0.1554147611356834</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1522,26 +1465,26 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>LGBMRegressor</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4735358014212615</v>
+        <v>0.5189380102295491</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2109918314974881</v>
+        <v>0.2000342741926628</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0744211698741431</v>
+        <v>0.06800309718562098</v>
       </c>
       <c r="E11" t="n">
-        <v>0.150580709273179</v>
+        <v>0.1416587900405413</v>
       </c>
       <c r="F11" t="n">
-        <v>0.317546913191371</v>
+        <v>0.3155380309852668</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1554147611356834</v>
+        <v>0.1570471680771666</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1552,26 +1495,26 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>LGBMRegressor</t>
+          <t>XGBRegressor</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5189380102295491</v>
+        <v>0.6571722021828973</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2000342741926628</v>
+        <v>0.1671999715956663</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06800309718562098</v>
+        <v>0.04846226172226437</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1416587900405413</v>
+        <v>0.1265980455362093</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3155380309852668</v>
+        <v>0.3174083647547594</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1570471680771666</v>
+        <v>0.1598027706814629</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1582,56 +1525,56 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>XGBRegressor</t>
+          <t>DummyRegressor</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6571722021828973</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1671999715956663</v>
+        <v>0.2796214525587269</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04846226172226437</v>
+        <v>0.1413603623476262</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1265980455362093</v>
+        <v>-0.0007235997447043729</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3174083647547594</v>
+        <v>0.3220566293867312</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1598027706814629</v>
+        <v>0.183098289519755</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Без погружения и без подбора параметров</t>
+          <t>С подбором параметров, без погружения</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>DummyRegressor</t>
+          <t>LinearRegression</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.2926310057232161</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2796214525587269</v>
+        <v>0.245318836480022</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1413603623476262</v>
+        <v>0.09999393734444208</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0007235997447043729</v>
+        <v>0.03179166443814085</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3220566293867312</v>
+        <v>0.3449597299771422</v>
       </c>
       <c r="G14" t="n">
-        <v>0.183098289519755</v>
+        <v>0.1771491050929256</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1642,26 +1585,26 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>LinearRegression</t>
+          <t>BayesianRidge</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2926310057232161</v>
+        <v>0.2926277377505926</v>
       </c>
       <c r="C15" t="n">
-        <v>0.245318836480022</v>
+        <v>0.2452865844834677</v>
       </c>
       <c r="D15" t="n">
-        <v>0.09999393734444208</v>
+        <v>0.09999439930623628</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03179166443814085</v>
+        <v>0.03247565347262138</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3449597299771422</v>
+        <v>0.3447637779460023</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1771491050929256</v>
+        <v>0.1770239584267576</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1672,26 +1615,26 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>BayesianRidge</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2926277377505926</v>
+        <v>0.2806529172176094</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2452865844834677</v>
+        <v>0.2477145338874033</v>
       </c>
       <c r="D16" t="n">
-        <v>0.09999439930623627</v>
+        <v>0.1016871642758266</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03247565347262138</v>
+        <v>0.0558220878319724</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3447637779460023</v>
+        <v>0.3373539609817894</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1770239584267576</v>
+        <v>0.1727523571587622</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1702,26 +1645,26 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ElasticNet</t>
+          <t>SVR</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2806529172176094</v>
+        <v>0.2820514409309838</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2477145338874033</v>
+        <v>0.2419164851079947</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1016871642758266</v>
+        <v>0.1014894684569522</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0558220878319724</v>
+        <v>0.04037820995915475</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3373539609817894</v>
+        <v>0.3364916861472145</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1727523571587622</v>
+        <v>0.1755780601028981</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1732,26 +1675,26 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>KNeighborsRegressor</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2820514409309838</v>
+        <v>0.4435547506232314</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2419164851079947</v>
+        <v>0.2188947106746834</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1014894684569522</v>
+        <v>0.07865930207851522</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04037820995915475</v>
+        <v>0.09503239505812633</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3364916861472145</v>
+        <v>0.3279004335814921</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1755780601028981</v>
+        <v>0.1655782081864741</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1762,26 +1705,26 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>KNeighborsRegressor</t>
+          <t>RandomForestRegressor</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4435547506232314</v>
+        <v>0.4384779061124782</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2188947106746834</v>
+        <v>0.2182686005525564</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07865930207851522</v>
+        <v>0.07937696665813784</v>
       </c>
       <c r="E19" t="n">
-        <v>0.09503239505812633</v>
+        <v>0.1955173772766914</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3279004335814921</v>
+        <v>0.310267150670985</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1655782081864741</v>
+        <v>0.1471928834361275</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1792,26 +1735,26 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>DecisionTreeRegressor</t>
+          <t>GradientBoostingRegressor</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4180426216240624</v>
+        <v>0.5283582126482905</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2212448946819077</v>
+        <v>0.1983307780255987</v>
       </c>
       <c r="D20" t="n">
-        <v>0.08226570587809713</v>
+        <v>0.06667145395831971</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1825128159098781</v>
+        <v>0.1586461751773157</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3096559728958695</v>
+        <v>0.3145835800789515</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1495722746514697</v>
+        <v>0.1539390559443557</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1822,26 +1765,26 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>RandomForestRegressor</t>
+          <t>CatBoost</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4384779061124782</v>
+        <v>0.5042627915402282</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2182686005525564</v>
+        <v>0.2032443892595715</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07937696665813784</v>
+        <v>0.07007759141707404</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1955173772766914</v>
+        <v>0.1484069498836408</v>
       </c>
       <c r="F21" t="n">
-        <v>0.310267150670985</v>
+        <v>0.3141317930447077</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1471928834361275</v>
+        <v>0.1558124849688712</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1852,26 +1795,26 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>LGBMRegressor</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5283582126482905</v>
+        <v>0.4442558207436108</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1983307780255987</v>
+        <v>0.2155247318462193</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06667145395831971</v>
+        <v>0.07856019855226729</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1586461751773157</v>
+        <v>0.1293499533824343</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3145835800789515</v>
+        <v>0.3216307570046911</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1539390559443557</v>
+        <v>0.1592992653981975</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1882,88 +1825,28 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>XGBRegressor</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.5042627915402282</v>
+        <v>0.5418837073629332</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2032443892595715</v>
+        <v>0.1955440255344056</v>
       </c>
       <c r="D23" t="n">
-        <v>0.07007759141707404</v>
+        <v>0.06475948512452691</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1484069498836408</v>
+        <v>0.1497156747002477</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3141317930447077</v>
+        <v>0.3130526237303316</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1558124849688712</v>
+        <v>0.1555730329609102</v>
       </c>
       <c r="H23" t="inlineStr">
-        <is>
-          <t>С подбором параметров, без погружения</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>LGBMRegressor</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.4442558207436108</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.2155247318462193</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.07856019855226729</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.1293499533824343</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.3216307570046911</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.1592992653981975</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>С подбором параметров, без погружения</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>XGBRegressor</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.5418837073629332</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.1955440255344056</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.06475948512452691</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.1497156747002477</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.3130526237303316</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.1555730329609102</v>
-      </c>
-      <c r="H25" t="inlineStr">
         <is>
           <t>С подбором параметров, без погружения</t>
         </is>
@@ -1980,7 +1863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2062,19 +1945,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1226652715925318</v>
+        <v>0.122665271592532</v>
       </c>
       <c r="C3" t="n">
         <v>0.0716673282480717</v>
       </c>
       <c r="D3" t="n">
-        <v>0.009721672348307</v>
+        <v>0.009721672348306998</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01354272831147907</v>
+        <v>0.01354272831147918</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0768179703454617</v>
+        <v>0.07681797034546167</v>
       </c>
       <c r="G3" t="n">
         <v>0.008269347790330501</v>
@@ -2095,7 +1978,7 @@
         <v>0.1222064451457424</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07163052039817831</v>
+        <v>0.07163052039817833</v>
       </c>
       <c r="D4" t="n">
         <v>0.009726756565580062</v>
@@ -2208,26 +2091,26 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>DecisionTreeRegressor</t>
+          <t>RandomForestRegressor</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.9172063017801375</v>
       </c>
       <c r="C8" t="n">
-        <v>1.823026313013393e-19</v>
+        <v>0.0206726036141215</v>
       </c>
       <c r="D8" t="n">
-        <v>7.589871702018664e-36</v>
+        <v>0.0009174300076541465</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.6899281704299896</v>
+        <v>-0.05509610005236709</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08570699879081016</v>
+        <v>0.07469120230713422</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01416645625009398</v>
+        <v>0.008844738493964209</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -2238,26 +2121,26 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>RandomForestRegressor</t>
+          <t>GradientBoostingRegressor</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9172063017801375</v>
+        <v>0.6177611877672619</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0206726036141215</v>
+        <v>0.04770149583150276</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0009174300076541465</v>
+        <v>0.004235556134974824</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.05509610005236709</v>
+        <v>-0.05528153281027648</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07469120230713422</v>
+        <v>0.07242831089687506</v>
       </c>
       <c r="G9" t="n">
-        <v>0.008844738493964209</v>
+        <v>0.008846292953554991</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -2268,26 +2151,26 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>CatBoost</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6177611877672619</v>
+        <v>0.4359348858925581</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04770149583150276</v>
+        <v>0.05763719262785357</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004235556134974824</v>
+        <v>0.006250358095839709</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.05528153281027648</v>
+        <v>0.02860714650325091</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07242831089687506</v>
+        <v>0.07174568982904792</v>
       </c>
       <c r="G10" t="n">
-        <v>0.008846292953554991</v>
+        <v>0.008143064658904534</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -2298,26 +2181,26 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>LGBMRegressor</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4359348858925581</v>
+        <v>0.5617571049704915</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05763719262785357</v>
+        <v>0.05079936189327979</v>
       </c>
       <c r="D11" t="n">
-        <v>0.006250358095839709</v>
+        <v>0.004856132666928536</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02860714650325091</v>
+        <v>-0.002180188043353626</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07174568982904792</v>
+        <v>0.07229460094706965</v>
       </c>
       <c r="G11" t="n">
-        <v>0.008143064658904534</v>
+        <v>0.008401151029404237</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -2328,26 +2211,26 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>LGBMRegressor</t>
+          <t>XGBRegressor</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5617571049704915</v>
+        <v>0.8344882831269158</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05079936189327979</v>
+        <v>0.03214596035965354</v>
       </c>
       <c r="D12" t="n">
-        <v>0.004856132666928536</v>
+        <v>0.001834021416394421</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.002180188043353626</v>
+        <v>-0.1388480541724924</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07229460094706965</v>
+        <v>0.07485421935945855</v>
       </c>
       <c r="G12" t="n">
-        <v>0.008401151029404237</v>
+        <v>0.009546820638438281</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -2358,56 +2241,56 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>XGBRegressor</t>
+          <t>DummyRegressor</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8344882831269158</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03214596035965354</v>
+        <v>0.07866127877681042</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001834021416394421</v>
+        <v>0.01108091590760771</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1388480541724924</v>
+        <v>-0.0365116189382888</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07485421935945855</v>
+        <v>0.0805161628545749</v>
       </c>
       <c r="G13" t="n">
-        <v>0.009546820638438281</v>
+        <v>0.008688947115821612</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>С погружением, без подбора параметров</t>
+          <t>С погружением и с подбором параметров</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>DummyRegressor</t>
+          <t>LinearRegression</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.122665271592532</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07866127877681042</v>
+        <v>0.0716673282480717</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01108091590760771</v>
+        <v>0.009721672348306998</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0365116189382888</v>
+        <v>0.01354272831147918</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0805161628545749</v>
+        <v>0.07681797034546167</v>
       </c>
       <c r="G14" t="n">
-        <v>0.008688947115821612</v>
+        <v>0.008269347790330501</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -2418,26 +2301,26 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>LinearRegression</t>
+          <t>BayesianRidge</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1226652715925318</v>
+        <v>0.1222064451457424</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0716673282480717</v>
+        <v>0.07163052039817833</v>
       </c>
       <c r="D15" t="n">
-        <v>0.009721672348307</v>
+        <v>0.009726756565580062</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01354272831147907</v>
+        <v>0.01319044442548167</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0768179703454617</v>
+        <v>0.07686652497462468</v>
       </c>
       <c r="G15" t="n">
-        <v>0.008269347790330501</v>
+        <v>0.008272300942035953</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -2448,26 +2331,26 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>BayesianRidge</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1222064451457424</v>
+        <v>0.06501617425761708</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07163052039817831</v>
+        <v>0.07559617477676428</v>
       </c>
       <c r="D16" t="n">
-        <v>0.009726756565580062</v>
+        <v>0.01036047714802468</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01319044442548167</v>
+        <v>-0.02116643524094042</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07686652497462468</v>
+        <v>0.08003830187074547</v>
       </c>
       <c r="G16" t="n">
-        <v>0.008272300942035953</v>
+        <v>0.008560310362318158</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -2478,26 +2361,26 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ElasticNet</t>
+          <t>SVR</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.06501617425761708</v>
+        <v>0.1057932462905882</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07559617477676428</v>
+        <v>0.07574049451461062</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01036047714802468</v>
+        <v>0.009908629841868868</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.02116643524094042</v>
+        <v>-0.02342558175455101</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08003830187074547</v>
+        <v>0.08101842494740903</v>
       </c>
       <c r="G17" t="n">
-        <v>0.008560310362318158</v>
+        <v>0.008579248504665047</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -2508,26 +2391,26 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>KNeighborsRegressor</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1057932462905882</v>
+        <v>0.2412719397896002</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07574049451461062</v>
+        <v>0.06600381496814915</v>
       </c>
       <c r="D18" t="n">
-        <v>0.009908629841868868</v>
+        <v>0.008407401831933756</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.02342558175455101</v>
+        <v>0.07022494096599552</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08101842494740903</v>
+        <v>0.07185548024389617</v>
       </c>
       <c r="G18" t="n">
-        <v>0.008579248504665047</v>
+        <v>0.007794187899052745</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -2538,26 +2421,26 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>KNeighborsRegressor</t>
+          <t>RandomForestRegressor</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2412719397896002</v>
+        <v>0.2230750806793201</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06600381496814915</v>
+        <v>0.06839129478839767</v>
       </c>
       <c r="D19" t="n">
-        <v>0.008407401831933756</v>
+        <v>0.008609039697517355</v>
       </c>
       <c r="E19" t="n">
-        <v>0.07022494096599552</v>
+        <v>0.02378053305567607</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07185548024389617</v>
+        <v>0.07550554712475216</v>
       </c>
       <c r="G19" t="n">
-        <v>0.007794187899052745</v>
+        <v>0.008183525555076105</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -2568,26 +2451,26 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>DecisionTreeRegressor</t>
+          <t>GradientBoostingRegressor</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1730349432734555</v>
+        <v>0.283207608556611</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06910603092669022</v>
+        <v>0.06531611065825012</v>
       </c>
       <c r="D20" t="n">
-        <v>0.009163530252116877</v>
+        <v>0.00794271621279722</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.01007370195850421</v>
+        <v>0.0597073422739639</v>
       </c>
       <c r="F20" t="n">
-        <v>0.07496113530500934</v>
+        <v>0.07317996671230498</v>
       </c>
       <c r="G20" t="n">
-        <v>0.008467321368176703</v>
+        <v>0.007882355611937725</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2598,26 +2481,26 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>RandomForestRegressor</t>
+          <t>CatBoost</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2230750806793201</v>
+        <v>0.3304355152266687</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06839129478839767</v>
+        <v>0.06249491623646335</v>
       </c>
       <c r="D21" t="n">
-        <v>0.008609039697517355</v>
+        <v>0.007419387750493965</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02378053305567607</v>
+        <v>0.0598097634888487</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07550554712475216</v>
+        <v>0.07124435482075332</v>
       </c>
       <c r="G21" t="n">
-        <v>0.008183525555076105</v>
+        <v>0.007881497027717914</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2628,26 +2511,26 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>LGBMRegressor</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.283207608556611</v>
+        <v>0.3245000222243906</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06531611065825012</v>
+        <v>0.06291817151887093</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00794271621279722</v>
+        <v>0.007485158449322403</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0597073422739639</v>
+        <v>0.05410237493114201</v>
       </c>
       <c r="F22" t="n">
-        <v>0.07317996671230498</v>
+        <v>0.07187070162304118</v>
       </c>
       <c r="G22" t="n">
-        <v>0.007882355611937725</v>
+        <v>0.007929341351352372</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2658,88 +2541,28 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>XGBRegressor</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3304355152266687</v>
+        <v>0.3418897514401489</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06249491623646335</v>
+        <v>0.06174236525212953</v>
       </c>
       <c r="D23" t="n">
-        <v>0.007419387750493965</v>
+        <v>0.007292464322226516</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0598097634888487</v>
+        <v>0.05383580598194482</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07124435482075332</v>
+        <v>0.0712768567225861</v>
       </c>
       <c r="G23" t="n">
-        <v>0.007881497027717914</v>
+        <v>0.007931575965475335</v>
       </c>
       <c r="H23" t="inlineStr">
-        <is>
-          <t>С погружением и с подбором параметров</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>LGBMRegressor</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.3245000222243906</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.06291817151887093</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.007485158449322403</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.05410237493114201</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.07187070162304118</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.007929341351352372</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>С погружением и с подбором параметров</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>XGBRegressor</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.3418897514401489</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.06174236525212953</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.007292464322226516</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.05383580598194482</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.0712768567225861</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.007931575965475335</v>
-      </c>
-      <c r="H25" t="inlineStr">
         <is>
           <t>С погружением и с подбором параметров</t>
         </is>
@@ -2756,7 +2579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2871,13 +2694,13 @@
         <v>0.304074325931233</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2419015221121282</v>
+        <v>0.2419015221121281</v>
       </c>
       <c r="D4" t="n">
         <v>0.09712152433061995</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03884135369226305</v>
+        <v>0.03884135369226316</v>
       </c>
       <c r="F4" t="n">
         <v>0.3428207766022703</v>
@@ -2984,26 +2807,26 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>DecisionTreeRegressor</t>
+          <t>RandomForestRegressor</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.9368166129800335</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.06748847204525998</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.008817704373332666</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2524241191197658</v>
+        <v>0.2206260802027006</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3328591025719468</v>
+        <v>0.2906660024987787</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2259606848449962</v>
+        <v>0.1406136004403204</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -3014,26 +2837,26 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>RandomForestRegressor</t>
+          <t>GradientBoostingRegressor</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9368166129800335</v>
+        <v>0.6559774745952367</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06748847204525998</v>
+        <v>0.1714645245362483</v>
       </c>
       <c r="D9" t="n">
-        <v>0.008817704373332666</v>
+        <v>0.04801086282107547</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2206260802027006</v>
+        <v>0.2112336151851506</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2906660024987787</v>
+        <v>0.3017203431368187</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1406136004403204</v>
+        <v>0.1423081764192946</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -3044,26 +2867,26 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>CatBoost</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6559774745952367</v>
+        <v>0.5447592215229525</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1714645245362483</v>
+        <v>0.1967335190681864</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04801086282107547</v>
+        <v>0.06353218452863117</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2112336151851506</v>
+        <v>0.2180106075614708</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3017203431368187</v>
+        <v>0.3015216511485521</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1423081764192946</v>
+        <v>0.1410854805168722</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -3074,26 +2897,26 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>LGBMRegressor</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5447592215229525</v>
+        <v>0.628631376488556</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1967335190681864</v>
+        <v>0.1759239078852524</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06353218452863117</v>
+        <v>0.05182721107718689</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2180106075614708</v>
+        <v>0.2221305956663774</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3015216511485521</v>
+        <v>0.2991090660436589</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1410854805168722</v>
+        <v>0.1403421577721839</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -3104,26 +2927,26 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>LGBMRegressor</t>
+          <t>XGBRegressor</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.628631376488556</v>
+        <v>0.8361018086546229</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1759239078852524</v>
+        <v>0.11658778453879</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05182721107718689</v>
+        <v>0.02287319288772456</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2221305956663774</v>
+        <v>0.1868012615975138</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2991090660436589</v>
+        <v>0.3006392349757668</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1403421577721839</v>
+        <v>0.1467162289829242</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -3134,56 +2957,56 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>XGBRegressor</t>
+          <t>DummyRegressor</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8361018086546229</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.11658778453879</v>
+        <v>0.2796553851734006</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02287319288772456</v>
+        <v>0.1395573233601136</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1868012615975138</v>
+        <v>-0.0007202233509837619</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3006392349757668</v>
+        <v>0.3198611831859479</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1467162289829242</v>
+        <v>0.1805486045458394</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>С погружением, без подбора параметров</t>
+          <t>С погружением и с подбором параметров</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>DummyRegressor</t>
+          <t>LinearRegression</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.3046942976773477</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2796553851734006</v>
+        <v>0.2418801565260021</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1395573233601136</v>
+        <v>0.0970350027331733</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0007202233509837619</v>
+        <v>0.0370241543486326</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3198611831859479</v>
+        <v>0.3433486122697091</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1805486045458394</v>
+        <v>0.1737388143926062</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -3194,26 +3017,26 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>LinearRegression</t>
+          <t>BayesianRidge</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3046942976773477</v>
+        <v>0.304074325931233</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2418801565260021</v>
+        <v>0.2419015221121281</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0970350027331733</v>
+        <v>0.09712152433061995</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0370241543486326</v>
+        <v>0.03884135369226316</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3433486122697091</v>
+        <v>0.3428207766022703</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1737388143926062</v>
+        <v>0.1734109577169657</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -3224,26 +3047,26 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>BayesianRidge</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.304074325931233</v>
+        <v>0.29075506180243</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2419015221121282</v>
+        <v>0.2448113424727253</v>
       </c>
       <c r="D16" t="n">
-        <v>0.09712152433061995</v>
+        <v>0.09898032518156208</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03884135369226305</v>
+        <v>0.05712452303585758</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3428207766022703</v>
+        <v>0.3374714332496417</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1734109577169657</v>
+        <v>0.1701123327520304</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -3254,26 +3077,26 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ElasticNet</t>
+          <t>SVR</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.29075506180243</v>
+        <v>0.2936591182443601</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2448113424727253</v>
+        <v>0.2389673179795309</v>
       </c>
       <c r="D17" t="n">
-        <v>0.09898032518156208</v>
+        <v>0.09857504283763963</v>
       </c>
       <c r="E17" t="n">
-        <v>0.05712452303585758</v>
+        <v>0.04605331922884903</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3374714332496417</v>
+        <v>0.3341570800679763</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1701123327520304</v>
+        <v>0.1721097845386091</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -3284,26 +3107,26 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>KNeighborsRegressor</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2936591182443601</v>
+        <v>0.4737394816467212</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2389673179795309</v>
+        <v>0.2102214062868532</v>
       </c>
       <c r="D18" t="n">
-        <v>0.09857504283763963</v>
+        <v>0.07344350933148953</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04605331922884903</v>
+        <v>0.1545223474293254</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3341570800679763</v>
+        <v>0.3135091328261497</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1721097845386091</v>
+        <v>0.1525399475141698</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -3314,26 +3137,26 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>KNeighborsRegressor</t>
+          <t>RandomForestRegressor</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4737394816467212</v>
+        <v>0.4845793838009952</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2102214062868532</v>
+        <v>0.2089673234095151</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07344350933148953</v>
+        <v>0.07193072160135353</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1545223474293254</v>
+        <v>0.216452789740481</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3135091328261497</v>
+        <v>0.304679785237636</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1525399475141698</v>
+        <v>0.1413665399250398</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -3344,26 +3167,26 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>DecisionTreeRegressor</t>
+          <t>GradientBoostingRegressor</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2432548077779439</v>
+        <v>0.3930273189223383</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2464083035614396</v>
+        <v>0.225770799237545</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1056093334921448</v>
+        <v>0.08470748272391035</v>
       </c>
       <c r="E20" t="n">
-        <v>0.004165052680540349</v>
+        <v>0.1097027378194628</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3260468851687199</v>
+        <v>0.3226617258997156</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1796672095767647</v>
+        <v>0.1606262415477339</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -3374,26 +3197,26 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>RandomForestRegressor</t>
+          <t>CatBoost</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4845793838009952</v>
+        <v>0.6094238645775676</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2089673234095151</v>
+        <v>0.1827387237265069</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07193072160135353</v>
+        <v>0.05450776002789193</v>
       </c>
       <c r="E21" t="n">
-        <v>0.216452789740481</v>
+        <v>0.1905306911340315</v>
       </c>
       <c r="F21" t="n">
-        <v>0.304679785237636</v>
+        <v>0.3037397845377013</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1413665399250398</v>
+        <v>0.1460433702928944</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -3404,26 +3227,26 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>LGBMRegressor</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3930273189223383</v>
+        <v>0.3899188455265536</v>
       </c>
       <c r="C22" t="n">
-        <v>0.225770799237545</v>
+        <v>0.2264718443422662</v>
       </c>
       <c r="D22" t="n">
-        <v>0.08470748272391035</v>
+        <v>0.08514129295076217</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1097027378194628</v>
+        <v>0.1065840544536013</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3226617258997156</v>
+        <v>0.3231769597455641</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1606262415477339</v>
+        <v>0.1611889102303364</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -3434,26 +3257,26 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>XGBRegressor</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6094238645775676</v>
+        <v>0.4311610868876983</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1827387237265069</v>
+        <v>0.2176734155325099</v>
       </c>
       <c r="D23" t="n">
-        <v>0.05450776002789193</v>
+        <v>0.07938563613702906</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1905306911340315</v>
+        <v>0.1126233562652091</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3037397845377013</v>
+        <v>0.3220167180091994</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1460433702928944</v>
+        <v>0.1600993074731685</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -3461,63 +3284,351 @@
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>LGBMRegressor</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.3899188455265536</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.2264718443422662</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.08514129295076217</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.1065840544536013</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.3231769597455641</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.1611889102303364</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>С погружением и с подбором параметров</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>XGBRegressor</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.4311610868876983</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.2176734155325099</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.07938563613702906</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.1126233562652091</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.3220167180091994</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.1600993074731685</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>С погружением и с подбором параметров</t>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>R2_train</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_train</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MSE_train</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>R2_test</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_test</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MSE_test</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>SingleLayerPerceptron</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1855585534856717</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6584180692223904</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8141155395729464</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.02988126403939928</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7113302545813636</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.7918972908602427</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Без погружения и без подбора параметров</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>SingleLayerPerceptron</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.3767745683141591</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5713985701409254</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6228843121282681</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.05679073739238483</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.7255692192430726</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.7990400430938903</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>С подбором параметров, без погружения</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>R2_train</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_train</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MSE_train</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>R2_test</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_test</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MSE_test</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>SingleLayerPerceptron</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1855585534856717</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6584180692223904</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8141155395729464</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.02988126403939928</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7113302545813636</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.7918972908602427</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Без погружения и без подбора параметров</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>SingleLayerPerceptron</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.3767745683141591</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5713985701409254</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6228843121282681</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.05679073739238483</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.7255692192430726</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.7990400430938903</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>С подбором параметров, без погружения</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>R2_train</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_train</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MSE_train</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>R2_test</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAE_test</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MSE_test</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>SingleLayerPerceptron</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3785203893636053</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6201607342465865</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6212309193156136</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1123625817650735</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.8765868091115507</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.148429329238644</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Без погружения и без подбора параметров</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>SingleLayerPerceptron</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5396406345111431</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5358491042944264</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4601073899193502</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.6404600195439043</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9850418305958305</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.119613635508407</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>С погружением, без подбора параметров</t>
         </is>
       </c>
     </row>

--- a/Progress_of_Work/Model_results.xlsx
+++ b/Progress_of_Work/Model_results.xlsx
@@ -11,9 +11,8 @@
     <sheet name="Resalts_for_Valence" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Results_with_lagging_for_Arousal" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Results_with_lagging_for_Valence" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Results_SingleLayerPerceptron" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Results_SingleLayerPerceptron_Arousal" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Results_SingleLayerPerceptron_Valence" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Results_SingleLayerPerceptron_Arousal" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Results_SingleLayerPerceptron_Valence" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3347,22 +3346,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1855585534856717</v>
+        <v>0.2100502056323864</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6584180692223904</v>
+        <v>0.07305155706907458</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8141155395729464</v>
+        <v>0.009778441663188007</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.02988126403939928</v>
+        <v>-0.01403949352141698</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7113302545813636</v>
+        <v>0.07479482607105015</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7918972908602427</v>
+        <v>0.00872975303418724</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -3377,26 +3376,26 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3767745683141591</v>
+        <v>0.2791076300357196</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5713985701409254</v>
+        <v>0.07005202433832229</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6228843121282681</v>
+        <v>0.00881519869775989</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.05679073739238483</v>
+        <v>-0.08273168781977325</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7255692192430726</v>
+        <v>0.0790158038018877</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7990400430938903</v>
+        <v>0.009076404165856629</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>С подбором параметров, без погружения</t>
+          <t>С погружением, без подбора параметров</t>
         </is>
       </c>
     </row>
@@ -3463,22 +3462,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1855585534856717</v>
+        <v>0.3758582163128849</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6584180692223904</v>
+        <v>0.2357071973103926</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8141155395729464</v>
+        <v>0.08995167795547436</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.02988126403939928</v>
+        <v>0.06801029280836579</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7113302545813636</v>
+        <v>0.3404685358681429</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7918972908602427</v>
+        <v>0.170522331321395</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -3493,138 +3492,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3767745683141591</v>
+        <v>0.4574116096635544</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5713985701409254</v>
+        <v>0.2184044659731844</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6228843121282681</v>
+        <v>0.07775798833717452</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.05679073739238483</v>
+        <v>-0.05202976412957394</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7255692192430726</v>
+        <v>0.3550201709115932</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7990400430938903</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>С подбором параметров, без погружения</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>R2_train</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>MAE_train</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>MSE_train</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>R2_test</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAE_test</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>MSE_test</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Модель</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>SingleLayerPerceptron</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.3785203893636053</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6201607342465865</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6212309193156136</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1123625817650735</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.8765868091115507</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.148429329238644</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Без погружения и без подбора параметров</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>SingleLayerPerceptron</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.5396406345111431</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5358491042944264</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.4601073899193502</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.6404600195439043</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9850418305958305</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.119613635508407</v>
+        <v>0.1898058032826068</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
